--- a/青岛中院V2.0/指标清单/青岛中院执行实施指标清单 .xlsx
+++ b/青岛中院V2.0/指标清单/青岛中院执行实施指标清单 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mengxin\工作项目\大屏任务对接\交接资料（汤）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mengxin\工作项目\青岛中院\workspace1\青岛中院V2.0\指标清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE937AAD-9B3F-4A63-979B-A12783333E25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E026FBF8-A8C7-442A-9D2D-B2F9AF7AB7D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28245" yWindow="2610" windowWidth="26595" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指标值说明" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="175">
   <si>
     <t>业务类表</t>
   </si>
@@ -605,6 +605,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -612,6 +613,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -620,6 +622,7 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -627,6 +630,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -634,17 +638,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -653,6 +660,7 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -660,6 +668,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -668,24 +677,28 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -693,17 +706,20 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1292,6 +1308,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1325,6 +1368,15 @@
     <xf numFmtId="0" fontId="12" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1354,42 +1406,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1892,64 +1908,64 @@
       <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="67">
+      <c r="A9" s="76">
         <v>7</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="76" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="73"/>
+      <c r="D9" s="82"/>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="74"/>
+      <c r="D10" s="83"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="74"/>
+      <c r="D11" s="83"/>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="74"/>
+      <c r="D12" s="83"/>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="74"/>
+      <c r="D13" s="83"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="74"/>
+      <c r="D14" s="83"/>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="75"/>
+      <c r="D15" s="84"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="58">
@@ -1970,7 +1986,7 @@
       <c r="B17" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="79" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="62"/>
@@ -1982,7 +1998,7 @@
       <c r="B18" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="71"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="62"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1992,7 +2008,7 @@
       <c r="B19" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="71"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="62"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -2002,7 +2018,7 @@
       <c r="B20" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="71"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="62"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -2012,7 +2028,7 @@
       <c r="B21" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="71"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="62"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -2022,7 +2038,7 @@
       <c r="B22" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="72"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="62"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -2164,12 +2180,12 @@
       <c r="D36" s="54"/>
     </row>
     <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
     </row>
     <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="55"/>
@@ -2220,12 +2236,12 @@
       <c r="D41" s="61"/>
     </row>
     <row r="42" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
     </row>
     <row r="43" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="55"/>
@@ -2337,10 +2353,10 @@
   <dimension ref="A1:AR12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AM6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2365,136 +2381,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="87" t="s">
+      <c r="J1" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="87" t="s">
+      <c r="L1" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="87" t="s">
+      <c r="N1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="87" t="s">
+      <c r="O1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="87" t="s">
+      <c r="P1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="87" t="s">
+      <c r="Q1" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="87" t="s">
+      <c r="R1" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="87" t="s">
+      <c r="S1" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="87" t="s">
+      <c r="T1" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="87" t="s">
+      <c r="U1" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="87" t="s">
+      <c r="V1" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="87" t="s">
+      <c r="W1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="87" t="s">
+      <c r="X1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="87" t="s">
+      <c r="Y1" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="87" t="s">
+      <c r="Z1" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="87" t="s">
+      <c r="AA1" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="87" t="s">
+      <c r="AB1" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="87" t="s">
+      <c r="AC1" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="87" t="s">
+      <c r="AD1" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="87" t="s">
+      <c r="AE1" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="87" t="s">
+      <c r="AF1" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" s="87" t="s">
+      <c r="AG1" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="87" t="s">
+      <c r="AH1" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="AI1" s="87" t="s">
+      <c r="AI1" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="AJ1" s="87" t="s">
+      <c r="AJ1" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="AK1" s="87" t="s">
+      <c r="AK1" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="AL1" s="87" t="s">
+      <c r="AL1" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="AM1" s="87" t="s">
+      <c r="AM1" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="AN1" s="87" t="s">
+      <c r="AN1" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="AO1" s="87" t="s">
+      <c r="AO1" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="AP1" s="87" t="s">
+      <c r="AP1" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="AQ1" s="87" t="s">
+      <c r="AQ1" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="87" t="s">
+      <c r="AR1" s="66" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2502,137 +2518,137 @@
       <c r="A2" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="87" t="s">
+      <c r="K2" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="87" t="s">
+      <c r="L2" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="87" t="s">
+      <c r="M2" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="87" t="s">
+      <c r="O2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="87" t="s">
+      <c r="P2" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="Q2" s="87" t="s">
+      <c r="Q2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="88" t="s">
+      <c r="R2" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="87" t="s">
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="87" t="s">
+      <c r="Y2" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="87" t="s">
+      <c r="Z2" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="87" t="s">
+      <c r="AA2" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="87" t="s">
+      <c r="AB2" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="87" t="s">
+      <c r="AC2" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="87" t="s">
+      <c r="AD2" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="AE2" s="87" t="s">
+      <c r="AE2" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="87" t="s">
+      <c r="AF2" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="87" t="s">
+      <c r="AG2" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="AH2" s="87" t="s">
+      <c r="AH2" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="AI2" s="87" t="s">
+      <c r="AI2" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="AJ2" s="87" t="s">
+      <c r="AJ2" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="AK2" s="87" t="s">
+      <c r="AK2" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="AL2" s="87" t="s">
+      <c r="AL2" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="AM2" s="87" t="s">
+      <c r="AM2" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="AN2" s="87" t="s">
+      <c r="AN2" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="AO2" s="87" t="s">
+      <c r="AO2" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="AP2" s="87" t="s">
+      <c r="AP2" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="AQ2" s="87" t="s">
+      <c r="AQ2" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="AR2" s="87"/>
+      <c r="AR2" s="66"/>
     </row>
     <row r="3" spans="1:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="53"/>
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
@@ -2652,14 +2668,14 @@
       <c r="Z3" s="53"/>
     </row>
     <row r="4" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="53"/>
       <c r="J4" s="53"/>
       <c r="K4" s="53"/>
@@ -2711,20 +2727,20 @@
       <c r="T5" s="53"/>
       <c r="U5" s="53"/>
       <c r="V5" s="53"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="93" t="s">
+      <c r="W5" s="68"/>
+      <c r="X5" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="Y5" s="93" t="s">
+      <c r="Y5" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="Z5" s="93" t="s">
+      <c r="Z5" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="AA5" s="93" t="s">
+      <c r="AA5" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="AB5" s="92"/>
+      <c r="AB5" s="68"/>
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
@@ -2745,7 +2761,7 @@
     <row r="6" spans="1:44" s="50" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6"/>
       <c r="B6" s="53"/>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="70" t="s">
         <v>172</v>
       </c>
       <c r="D6" s="53" t="s">
@@ -2775,8 +2791,8 @@
       <c r="T6" s="53"/>
       <c r="U6" s="53"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="93" t="s">
+      <c r="W6" s="68"/>
+      <c r="X6" s="69" t="s">
         <v>117</v>
       </c>
       <c r="Y6" s="53" t="s">
@@ -2802,76 +2818,76 @@
       <c r="AQ6"/>
       <c r="AR6"/>
     </row>
-    <row r="7" spans="1:44" s="86" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="95"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="96" t="s">
+    <row r="7" spans="1:44" s="65" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95" t="s">
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95" t="s">
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="S7" s="95"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="96" t="s">
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="Y7" s="95" t="s">
+      <c r="Y7" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="95"/>
-      <c r="AD7" s="95"/>
-      <c r="AE7" s="95"/>
-      <c r="AF7" s="95"/>
-      <c r="AG7" s="95"/>
-      <c r="AH7" s="95"/>
-      <c r="AI7" s="95"/>
-      <c r="AJ7" s="95"/>
-      <c r="AK7" s="95"/>
-      <c r="AL7" s="95"/>
-      <c r="AM7" s="95"/>
-      <c r="AN7" s="95"/>
-      <c r="AO7" s="95"/>
-      <c r="AP7" s="95"/>
-      <c r="AQ7" s="95"/>
-      <c r="AR7" s="95"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
     </row>
     <row r="8" spans="1:44" s="48" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="70" t="s">
         <v>144</v>
       </c>
       <c r="D8" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="73" t="s">
         <v>174</v>
       </c>
       <c r="F8"/>
@@ -3300,9 +3316,9 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="28"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
@@ -3313,9 +3329,9 @@
       <c r="A2" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
@@ -4662,7 +4678,7 @@
       <c r="F144" s="20"/>
       <c r="G144" s="20"/>
       <c r="H144" s="20"/>
-      <c r="I144" s="76"/>
+      <c r="I144" s="88"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A145" s="20"/>
@@ -4670,7 +4686,7 @@
       <c r="F145" s="20"/>
       <c r="G145" s="20"/>
       <c r="H145" s="20"/>
-      <c r="I145" s="77"/>
+      <c r="I145" s="89"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A146" s="20"/>
@@ -4678,7 +4694,7 @@
       <c r="F146" s="20"/>
       <c r="G146" s="20"/>
       <c r="H146" s="20"/>
-      <c r="I146" s="77"/>
+      <c r="I146" s="89"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A147" s="20"/>
@@ -4686,7 +4702,7 @@
       <c r="F147" s="20"/>
       <c r="G147" s="20"/>
       <c r="H147" s="20"/>
-      <c r="I147" s="77"/>
+      <c r="I147" s="89"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A148" s="20"/>
@@ -4694,7 +4710,7 @@
       <c r="F148" s="20"/>
       <c r="G148" s="20"/>
       <c r="H148" s="20"/>
-      <c r="I148" s="77"/>
+      <c r="I148" s="89"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A149" s="20"/>
@@ -4702,7 +4718,7 @@
       <c r="F149" s="20"/>
       <c r="G149" s="20"/>
       <c r="H149" s="20"/>
-      <c r="I149" s="77"/>
+      <c r="I149" s="89"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A150" s="20"/>
@@ -4710,7 +4726,7 @@
       <c r="F150" s="20"/>
       <c r="G150" s="20"/>
       <c r="H150" s="20"/>
-      <c r="I150" s="78"/>
+      <c r="I150" s="90"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A151" s="20"/>
@@ -4718,7 +4734,7 @@
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
-      <c r="I151" s="79"/>
+      <c r="I151" s="91"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A152" s="20"/>
@@ -4726,7 +4742,7 @@
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
-      <c r="I152" s="80"/>
+      <c r="I152" s="92"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A153" s="20"/>
@@ -4734,7 +4750,7 @@
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
       <c r="H153" s="20"/>
-      <c r="I153" s="80"/>
+      <c r="I153" s="92"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A154" s="20"/>
@@ -4742,7 +4758,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="H154" s="20"/>
-      <c r="I154" s="80"/>
+      <c r="I154" s="92"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A155" s="20"/>
@@ -4750,7 +4766,7 @@
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
       <c r="H155" s="20"/>
-      <c r="I155" s="80"/>
+      <c r="I155" s="92"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A156" s="20"/>
@@ -4758,7 +4774,7 @@
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
       <c r="H156" s="20"/>
-      <c r="I156" s="80"/>
+      <c r="I156" s="92"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A157" s="20"/>
@@ -4766,7 +4782,7 @@
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
-      <c r="I157" s="81"/>
+      <c r="I157" s="93"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A158" s="20"/>
@@ -4774,7 +4790,7 @@
       <c r="F158" s="20"/>
       <c r="G158" s="20"/>
       <c r="H158" s="20"/>
-      <c r="I158" s="82"/>
+      <c r="I158" s="94"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A159" s="20"/>
@@ -4782,7 +4798,7 @@
       <c r="F159" s="20"/>
       <c r="G159" s="20"/>
       <c r="H159" s="20"/>
-      <c r="I159" s="83"/>
+      <c r="I159" s="95"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A160" s="20"/>
@@ -4790,7 +4806,7 @@
       <c r="F160" s="20"/>
       <c r="G160" s="20"/>
       <c r="H160" s="20"/>
-      <c r="I160" s="83"/>
+      <c r="I160" s="95"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A161" s="20"/>
@@ -4798,7 +4814,7 @@
       <c r="F161" s="20"/>
       <c r="G161" s="20"/>
       <c r="H161" s="20"/>
-      <c r="I161" s="83"/>
+      <c r="I161" s="95"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A162" s="20"/>
@@ -4806,7 +4822,7 @@
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
       <c r="H162" s="20"/>
-      <c r="I162" s="83"/>
+      <c r="I162" s="95"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A163" s="20"/>
@@ -4814,7 +4830,7 @@
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
       <c r="H163" s="20"/>
-      <c r="I163" s="83"/>
+      <c r="I163" s="95"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A164" s="20"/>
@@ -4822,7 +4838,7 @@
       <c r="F164" s="20"/>
       <c r="G164" s="20"/>
       <c r="H164" s="20"/>
-      <c r="I164" s="83"/>
+      <c r="I164" s="95"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A165" s="20"/>
@@ -4830,7 +4846,7 @@
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
       <c r="H165" s="20"/>
-      <c r="I165" s="83"/>
+      <c r="I165" s="95"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A166" s="20"/>
@@ -4838,7 +4854,7 @@
       <c r="F166" s="20"/>
       <c r="G166" s="20"/>
       <c r="H166" s="20"/>
-      <c r="I166" s="83"/>
+      <c r="I166" s="95"/>
     </row>
     <row r="167" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="43"/>
@@ -4849,7 +4865,7 @@
       <c r="F167" s="43"/>
       <c r="G167" s="43"/>
       <c r="H167" s="43"/>
-      <c r="I167" s="84"/>
+      <c r="I167" s="96"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A168" s="20"/>
